--- a/app/config/tables/MIFVISIT/forms/MIFVISIT/MIFVISIT.xlsx
+++ b/app/config/tables/MIFVISIT/forms/MIFVISIT/MIFVISIT.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5B9378-5336-4267-B99D-D7FD9A69FDCE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B0028E-FC7C-4EE5-853D-1C4A9876D877}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="419">
   <si>
     <t>setting_name</t>
   </si>
@@ -1285,6 +1285,9 @@
   </si>
   <si>
     <t>Vaccines</t>
+  </si>
+  <si>
+    <t>{ID: data('ID'), VISITDATE: data('CONT'), VISITID: data('_id')}</t>
   </si>
 </sst>
 </file>
@@ -1903,7 +1906,7 @@
   <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
@@ -4094,7 +4097,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4210,7 +4213,7 @@
         <v>215</v>
       </c>
       <c r="G4" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="H4" s="17" t="s">
         <v>213</v>
@@ -4226,7 +4229,7 @@
   <dimension ref="A1:C134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D140" sqref="D140"/>
     </sheetView>
   </sheetViews>
